--- a/notebooks/assets/test_random_selection/RFnh3_st0_01_mountains.xlsx
+++ b/notebooks/assets/test_random_selection/RFnh3_st0_01_mountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="C2" t="n">
-        <v>0.218</v>
+        <v>0.18</v>
       </c>
       <c r="D2" t="n">
-        <v>0.516</v>
+        <v>0.505</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.669</v>
       </c>
       <c r="F2" t="n">
-        <v>0.506</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.805</v>
+        <v>0.954</v>
       </c>
       <c r="C3" t="n">
-        <v>0.373</v>
+        <v>0.327</v>
       </c>
       <c r="D3" t="n">
-        <v>1.282</v>
+        <v>1.12</v>
       </c>
       <c r="E3" t="n">
-        <v>1.883</v>
+        <v>1.803</v>
       </c>
       <c r="F3" t="n">
-        <v>1.503</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.065</v>
       </c>
       <c r="C4" t="n">
-        <v>0.146</v>
+        <v>0.147</v>
       </c>
       <c r="D4" t="n">
-        <v>2.064</v>
+        <v>1.861</v>
       </c>
       <c r="E4" t="n">
-        <v>4.872</v>
+        <v>4.244</v>
       </c>
       <c r="F4" t="n">
-        <v>3.422</v>
+        <v>0.732</v>
       </c>
     </row>
     <row r="5">
@@ -539,13 +539,13 @@
         <v>0.998</v>
       </c>
       <c r="D5" t="n">
-        <v>0.991</v>
+        <v>0.994</v>
       </c>
       <c r="E5" t="n">
-        <v>0.988</v>
+        <v>0.99</v>
       </c>
       <c r="F5" t="n">
-        <v>0.981</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="6">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.523</v>
+        <v>18.513</v>
       </c>
       <c r="C7" t="n">
-        <v>12.052</v>
+        <v>12.046</v>
       </c>
       <c r="D7" t="n">
-        <v>16.906</v>
+        <v>16.887</v>
       </c>
       <c r="E7" t="n">
-        <v>19.402</v>
+        <v>19.503</v>
       </c>
       <c r="F7" t="n">
-        <v>12.976</v>
+        <v>12.945</v>
       </c>
     </row>
     <row r="8">
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.202</v>
+        <v>0.227</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.237</v>
+        <v>-1.134</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.04</v>
+        <v>-0.044</v>
       </c>
       <c r="E9" t="n">
-        <v>0.116</v>
+        <v>0.124</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.122</v>
+        <v>-0.03</v>
       </c>
     </row>
   </sheetData>
